--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\practiquitasPython\Studyng on my own\problemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AB4F59F-2CF4-4DE7-8519-BBB880AC0A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5138AD78-23EC-49BD-B615-89E7AE4FC80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F888C280-0654-4B02-877C-AA79B101120F}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t xml:space="preserve">Apellidos </t>
   </si>
   <si>
-    <t>Edad</t>
-  </si>
-  <si>
     <t>Piero</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>Mamani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edad </t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,15 +422,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>19</v>
@@ -438,10 +438,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>19</v>
